--- a/biology/Zoologie/Aphidius/Aphidius.xlsx
+++ b/biology/Zoologie/Aphidius/Aphidius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysaphidius
-Aphidius est un genre d'insectes hyménoptères parasitoïdes de pucerons comprenant une quarantaine d'espèces[1] dont certaines sont commercialisées pour la lutte biologique.
+Aphidius est un genre d'insectes hyménoptères parasitoïdes de pucerons comprenant une quarantaine d'espèces dont certaines sont commercialisées pour la lutte biologique.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre Aphidius est décrit et publié par Christian Gottfried Daniel Nees von Esenbeck en 1818
-Synonyme
-Il a un synonyme Lysaphidius Smith, 1944[2]
 </t>
         </is>
       </c>
@@ -542,12 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a un synonyme Lysaphidius Smith, 1944
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aphidius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Espèces selon catalogueoflife[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèces selon catalogueoflife
 A. adelocarinus Smith, 1944
 A. alius Muesebeck, 1958
 A. amamioshimensis Takada, 1968
@@ -599,7 +650,7 @@
 A. hieraciorum Stary, 1962
 A. hortensis Marshall, 1896
 A. inclusus Ratzeburg, 1852
-A. iranicus Rakhshani &amp; Stary, 2007[4]
+A. iranicus Rakhshani &amp; Stary, 2007
 A. kakimiaphidis Smith, 1944
 A. kunmingensis (Wang &amp; Dong, 1997)
 A. lincangensis Dong, 1988
@@ -678,8 +729,43 @@
 A. uzbekistanicus Luzhetzki, 1960
 A. vaccinii Liu, 1977
 A. viaticus (Sedlag, 1969)
-Espèce fossile
-†Aphidius maximus Théobald, 1937</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphidius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce fossile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>†Aphidius maximus Théobald, 1937</t>
         </is>
       </c>
     </row>
